--- a/AirpocketAPI/upload/drc-03.xlsx
+++ b/AirpocketAPI/upload/drc-03.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Reg</t>
   </si>
@@ -93,13 +93,37 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>S/B</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>COCKPIT</t>
+  </si>
+  <si>
+    <t>CABIN</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>DAILY</t>
+  </si>
+  <si>
+    <t>RESERVE</t>
+  </si>
+  <si>
+    <t>POSITIONING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,8 +139,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,8 +184,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -216,11 +277,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -228,27 +360,72 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -264,14 +441,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -288,6 +465,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>50799</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1727200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>291010</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="logo-m"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="5332" b="7573"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15045266" y="110067"/>
+          <a:ext cx="1676401" cy="561943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="0"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -553,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Y4"/>
+  <dimension ref="B1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,170 +806,430 @@
     <col min="15" max="15" width="14.5546875" style="1" customWidth="1"/>
     <col min="16" max="18" width="8.88671875" style="1"/>
     <col min="19" max="19" width="13.6640625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="1"/>
+    <col min="20" max="21" width="8.88671875" style="1"/>
+    <col min="22" max="22" width="9.109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9.33203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="9.88671875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="25.44140625" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
     </row>
-    <row r="2" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:25" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="17"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="6"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="8"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="32"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="3" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="X4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" s="2" t="s">
         <v>18</v>
       </c>
+    </row>
+    <row r="5" spans="2:25" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+    </row>
+    <row r="6" spans="2:25" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="10"/>
+    </row>
+    <row r="7" spans="2:25" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="17"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="10"/>
+    </row>
+    <row r="8" spans="2:25" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="10"/>
+    </row>
+    <row r="9" spans="2:25" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="10"/>
+    </row>
+    <row r="10" spans="2:25" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17"/>
+      <c r="C10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="10"/>
+    </row>
+    <row r="11" spans="2:25" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="17"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="10"/>
+    </row>
+    <row r="12" spans="2:25" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="10"/>
+    </row>
+    <row r="13" spans="2:25" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
+  <mergeCells count="31">
     <mergeCell ref="B1:Y1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:Y2"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="G3:G4"/>
@@ -743,8 +1240,26 @@
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="K3:M4"/>
     <mergeCell ref="J3:J4"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B5:Y5"/>
+    <mergeCell ref="E6:Y6"/>
+    <mergeCell ref="E7:Y7"/>
+    <mergeCell ref="E8:Y8"/>
+    <mergeCell ref="E9:Y9"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="E10:Y10"/>
+    <mergeCell ref="E11:Y11"/>
+    <mergeCell ref="E12:Y12"/>
+    <mergeCell ref="E13:Y13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>